--- a/test3.xlsx
+++ b/test3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joanatirana/Desktop/delft-visiting/optimize code/scheduling-jobs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06B7639-29DB-1946-A9EE-4870C431AEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEDD541-4A2B-0143-8EB2-583991D0E6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{89AD0465-6C35-FE47-91D1-613292502C79}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="17500" firstSheet="2" activeTab="3" xr2:uid="{89AD0465-6C35-FE47-91D1-613292502C79}"/>
   </bookViews>
   <sheets>
     <sheet name="get_fwd_release_delays" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,10 @@
     <sheet name="get_fwd_end_local" sheetId="3" r:id="rId3"/>
     <sheet name="get_trans_back" sheetId="4" r:id="rId4"/>
     <sheet name="get_memory_characteristics" sheetId="5" r:id="rId5"/>
+    <sheet name="get_bwd_release_delays" sheetId="6" r:id="rId6"/>
+    <sheet name="get_bwd_proc_compute_node" sheetId="7" r:id="rId7"/>
+    <sheet name="get_bwd_end_local" sheetId="8" r:id="rId8"/>
+    <sheet name="get_grad_trans_back" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -395,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EE6FD3-4147-0A46-89D9-DA1459BF3B7D}">
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1590,7 +1594,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1629,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71578EE-A621-4B40-955A-BFE0D3AB3D6B}">
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A50"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A50" sqref="A27:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1894,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11B2DF9-796E-AF41-8E63-88C35A3E090B}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:E51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2793,4 +2797,1912 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D36D3D3-E1AA-274B-A0D0-8FDA8E3CAA58}">
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>2</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>2</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>2</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>2</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>2</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>2</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>2</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>2</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>2</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>2</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>2</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA1A8A9-B03D-2E4D-BA7D-B8535B5239BC}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECB69A5-9C96-304F-9C65-9783D6CF3F16}">
+  <dimension ref="A1:A24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9E1E48-D64A-3641-94F9-6F456485EA13}">
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test3.xlsx
+++ b/test3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joanatirana/Desktop/delft-visiting/optimize code/scheduling-jobs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEDD541-4A2B-0143-8EB2-583991D0E6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D7BBB5-EDEE-E641-8273-F89EFE4D2322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="17500" firstSheet="2" activeTab="3" xr2:uid="{89AD0465-6C35-FE47-91D1-613292502C79}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="17500" firstSheet="2" activeTab="7" xr2:uid="{89AD0465-6C35-FE47-91D1-613292502C79}"/>
   </bookViews>
   <sheets>
     <sheet name="get_fwd_release_delays" sheetId="1" r:id="rId1"/>
@@ -1633,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F71578EE-A621-4B40-955A-BFE0D3AB3D6B}">
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A50" sqref="A27:A50"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1898,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11B2DF9-796E-AF41-8E63-88C35A3E090B}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3709,10 +3709,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECB69A5-9C96-304F-9C65-9783D6CF3F16}">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3835,6 +3835,136 @@
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
